--- a/Data/TPOD_Test_Score_Graph_Literacy.xlsx
+++ b/Data/TPOD_Test_Score_Graph_Literacy.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,27 +442,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Batoef</t>
+          <t>Bivrak</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bivrak</t>
+          <t>Bunkui</t>
         </is>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bunkui</t>
+          <t>Cewtay</t>
         </is>
       </c>
       <c r="B11">
@@ -472,77 +472,77 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cewtay</t>
+          <t>Cifhes</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cifhes</t>
+          <t>Citmea</t>
         </is>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Citmea</t>
+          <t>Dekpit</t>
         </is>
       </c>
       <c r="B14">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dekpit</t>
+          <t>Dicram</t>
         </is>
       </c>
       <c r="B15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dicram</t>
+          <t>Eddeta</t>
         </is>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Eddeta</t>
+          <t>Eggemy</t>
         </is>
       </c>
       <c r="B17">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Eggemy</t>
+          <t>Eggusa</t>
         </is>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Eggusa</t>
+          <t>Emmaxi</t>
         </is>
       </c>
       <c r="B19">
@@ -552,7 +552,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Emmaxi</t>
+          <t>Enfalo</t>
         </is>
       </c>
       <c r="B20">
@@ -562,7 +562,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Enfalo</t>
+          <t>Erjihl</t>
         </is>
       </c>
       <c r="B21">
@@ -572,47 +572,47 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Erjihl</t>
+          <t>Exwulu</t>
         </is>
       </c>
       <c r="B22">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Exwulu</t>
+          <t>Fabpud</t>
         </is>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fabpud</t>
+          <t>Fanrag</t>
         </is>
       </c>
       <c r="B24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fanrag</t>
+          <t>Faslar</t>
         </is>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Faslar</t>
+          <t>Fixget</t>
         </is>
       </c>
       <c r="B26">
@@ -622,7 +622,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fixget</t>
+          <t>Fopdos</t>
         </is>
       </c>
       <c r="B27">
@@ -632,17 +632,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fopdos</t>
+          <t>Gisfak</t>
         </is>
       </c>
       <c r="B28">
-        <v>0.8333333333333334</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Galfip</t>
+          <t>Gitbeh</t>
         </is>
       </c>
       <c r="B29">
@@ -652,27 +652,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Gifwaj</t>
+          <t>Lijpuk</t>
         </is>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Gisfak</t>
+          <t>Luzgas</t>
         </is>
       </c>
       <c r="B31">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Gitbeh</t>
+          <t>Mafvod</t>
         </is>
       </c>
       <c r="B32">
@@ -682,57 +682,57 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hirhaf</t>
+          <t>Majwem</t>
         </is>
       </c>
       <c r="B33">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Kartad</t>
+          <t>Mamlet</t>
         </is>
       </c>
       <c r="B34">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Kelxas</t>
+          <t>Mihlel</t>
         </is>
       </c>
       <c r="B35">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Kiktoa</t>
+          <t>Nardon</t>
         </is>
       </c>
       <c r="B36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Labtit</t>
+          <t>Nidjiu</t>
         </is>
       </c>
       <c r="B37">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Laypai</t>
+          <t>Odseni</t>
         </is>
       </c>
       <c r="B38">
@@ -742,7 +742,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Lellid</t>
+          <t>Ojgaxa</t>
         </is>
       </c>
       <c r="B39">
@@ -752,27 +752,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Lesnaw</t>
+          <t>Oklopa</t>
         </is>
       </c>
       <c r="B40">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Lijpuk</t>
+          <t>Orpepa</t>
         </is>
       </c>
       <c r="B41">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Lubtad</t>
+          <t>Passee</t>
         </is>
       </c>
       <c r="B42">
@@ -782,17 +782,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Luzgas</t>
+          <t>Pecxov</t>
         </is>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mafvod</t>
+          <t>Pevaal</t>
         </is>
       </c>
       <c r="B44">
@@ -802,150 +802,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Majwem</t>
+          <t>Rargid</t>
         </is>
       </c>
       <c r="B45">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mamlet</t>
+          <t>Zittif</t>
         </is>
       </c>
       <c r="B46">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Mihlel</t>
-        </is>
-      </c>
-      <c r="B47">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Nardon</t>
-        </is>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Nidjiu</t>
-        </is>
-      </c>
-      <c r="B49">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Odseni</t>
-        </is>
-      </c>
-      <c r="B50">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Ojgaxa</t>
-        </is>
-      </c>
-      <c r="B51">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Oklopa</t>
-        </is>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Orpepa</t>
-        </is>
-      </c>
-      <c r="B53">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Oswibe</t>
-        </is>
-      </c>
-      <c r="B54">
-        <v>0.1666666666666667</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Passee</t>
-        </is>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Pecxov</t>
-        </is>
-      </c>
-      <c r="B56">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Pevaal</t>
-        </is>
-      </c>
-      <c r="B57">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Rargid</t>
-        </is>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Zittif</t>
-        </is>
-      </c>
-      <c r="B59">
         <v>0.8333333333333334</v>
       </c>
     </row>
